--- a/songs.xlsx
+++ b/songs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Documents\00\coding\1_html\music-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE29668C-E6BC-4822-922D-3751C1C68E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C06AEE8-517E-4CB4-8BAC-165AC796F294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{1A37D3D3-F292-462B-A732-E13F55A893B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1A37D3D3-F292-462B-A732-E13F55A893B8}"/>
   </bookViews>
   <sheets>
     <sheet name="songs" sheetId="5" r:id="rId1"/>
